--- a/Test2V2D.xlsx
+++ b/Test2V2D.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BatchFile" sheetId="3" r:id="rId1"/>
     <sheet name="Quick Sanity" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatchFile!$A$3:$F$13</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="299">
   <si>
     <t>Page/Section</t>
   </si>
@@ -682,16 +683,244 @@
     <t>1RelationShip</t>
   </si>
   <si>
-    <t>Lassi</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
     <t>DriverD</t>
   </si>
   <si>
     <t>Testqa</t>
+  </si>
+  <si>
+    <t>Paajio</t>
+  </si>
+  <si>
+    <t>Mangoq</t>
+  </si>
+  <si>
+    <t>Aboutyourfamily</t>
+  </si>
+  <si>
+    <t>LittleOnes</t>
+  </si>
+  <si>
+    <t>YoungAdults</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>MoveinYear</t>
+  </si>
+  <si>
+    <t>MoveinMonth</t>
+  </si>
+  <si>
+    <t>TypeofResidence</t>
+  </si>
+  <si>
+    <t>Rentersinsuranceinterest</t>
+  </si>
+  <si>
+    <t>Financeorlease</t>
+  </si>
+  <si>
+    <t>KeptinZip</t>
+  </si>
+  <si>
+    <t>YearBought</t>
+  </si>
+  <si>
+    <t>MonthBought</t>
+  </si>
+  <si>
+    <t>Ownedbyyou</t>
+  </si>
+  <si>
+    <t>Titledinnext30days</t>
+  </si>
+  <si>
+    <t>CustomEquipment</t>
+  </si>
+  <si>
+    <t>EstimatedValue</t>
+  </si>
+  <si>
+    <t>CrashAvoidance</t>
+  </si>
+  <si>
+    <t>HandsFree</t>
+  </si>
+  <si>
+    <t>MaritalStatus</t>
+  </si>
+  <si>
+    <t>ValidLicense</t>
+  </si>
+  <si>
+    <t>Agefirstlicensed</t>
+  </si>
+  <si>
+    <t>IncidentHistory</t>
+  </si>
+  <si>
+    <t>IncidentDate</t>
+  </si>
+  <si>
+    <t>CurrentlyInsured</t>
+  </si>
+  <si>
+    <t>CurrentInsuranceProvider</t>
+  </si>
+  <si>
+    <t>YearswithCurrentInsurer</t>
+  </si>
+  <si>
+    <t>BILimit</t>
+  </si>
+  <si>
+    <t>Uninsuredinlast3years</t>
+  </si>
+  <si>
+    <t>PaperlessDiscount</t>
+  </si>
+  <si>
+    <t>E-SignatureDiscount</t>
+  </si>
+  <si>
+    <t>PolicyStartDate</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Licenseno</t>
+  </si>
+  <si>
+    <t>LicenseState</t>
+  </si>
+  <si>
+    <t>PaymentPlan</t>
+  </si>
+  <si>
+    <t>CardHolderFirstName</t>
+  </si>
+  <si>
+    <t>CardHolderLastName</t>
+  </si>
+  <si>
+    <t>CardNo</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>PolicyholderDetails</t>
+  </si>
+  <si>
+    <t>InsuranceHistory</t>
+  </si>
+  <si>
+    <t>ConfirmDriver</t>
+  </si>
+  <si>
+    <t>s=</t>
+  </si>
+  <si>
+    <t>ConfirmVehicle</t>
+  </si>
+  <si>
+    <t>AdditionalVehicle-details</t>
+  </si>
+  <si>
+    <t>AdditionalVehicle-details-2</t>
+  </si>
+  <si>
+    <t>2Year</t>
+  </si>
+  <si>
+    <t>2Make</t>
+  </si>
+  <si>
+    <t>2Model</t>
+  </si>
+  <si>
+    <t>2Style</t>
+  </si>
+  <si>
+    <t>2Financeorlease</t>
+  </si>
+  <si>
+    <t>2Use</t>
+  </si>
+  <si>
+    <t>2Mileage</t>
+  </si>
+  <si>
+    <t>2KeptinZip</t>
+  </si>
+  <si>
+    <t>2YearBought</t>
+  </si>
+  <si>
+    <t>2MonthBought</t>
+  </si>
+  <si>
+    <t>2Ownedbyyou</t>
+  </si>
+  <si>
+    <t>2Titledinnext30days</t>
+  </si>
+  <si>
+    <t>2CustomEquipment</t>
+  </si>
+  <si>
+    <t>2EstimatedValue</t>
+  </si>
+  <si>
+    <t>2CrashAvoidance</t>
+  </si>
+  <si>
+    <t>2HandsFree</t>
+  </si>
+  <si>
+    <t>AdditionalDriver</t>
+  </si>
+  <si>
+    <t>2FirstName</t>
+  </si>
+  <si>
+    <t>2LastName</t>
+  </si>
+  <si>
+    <t>2DOB</t>
+  </si>
+  <si>
+    <t>2Gender</t>
+  </si>
+  <si>
+    <t>2RelationShip</t>
+  </si>
+  <si>
+    <t>2MaritalStatus</t>
+  </si>
+  <si>
+    <t>2ValidLicense</t>
+  </si>
+  <si>
+    <t>2Agefirstlicensed</t>
+  </si>
+  <si>
+    <t>2Incident</t>
+  </si>
+  <si>
+    <t>2VIN</t>
+  </si>
+  <si>
+    <t>2Licenseno</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1081,6 +1310,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,7 +1345,257 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1482,7 +1964,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1507,26 +1989,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2017,18 +2499,18 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F24">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G24">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2049,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2062,11 +2544,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="22" t="s">
@@ -2176,7 +2658,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2185,7 +2667,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2652,7 +3134,7 @@
         <v>203</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2918,7 +3400,7 @@
         <v>144</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2927,7 +3409,7 @@
         <v>145</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2953,22 +3435,22 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B89:B1048576 B1:B4 B7:B36 B83:B87 B53:B62">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B71">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B82">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B52">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="/v1-family"/>
@@ -2976,4 +3458,1333 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="32"/>
+      <c r="B29" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="32"/>
+      <c r="B30" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="21"/>
+      <c r="B32" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="32"/>
+      <c r="B34" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="32"/>
+      <c r="B36" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="32"/>
+      <c r="B37" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="21"/>
+      <c r="B41" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="21"/>
+      <c r="B50" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="32"/>
+      <c r="B52" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="33"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="21"/>
+      <c r="B59" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="21"/>
+      <c r="B65" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="32"/>
+      <c r="B67" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="21"/>
+      <c r="B69" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="32"/>
+      <c r="B70" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="33"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="21"/>
+      <c r="B72" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="32"/>
+      <c r="B75" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="32"/>
+      <c r="B77" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="32"/>
+      <c r="B78" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="32"/>
+      <c r="B79" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="32"/>
+      <c r="B80" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="21"/>
+      <c r="B82" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="32"/>
+      <c r="B83" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="32"/>
+      <c r="B84" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="32"/>
+      <c r="B85" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="32"/>
+      <c r="B86" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="32"/>
+      <c r="B87" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="21"/>
+      <c r="B89" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="32"/>
+      <c r="B90" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="32"/>
+      <c r="B93" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B94" s="33"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="21"/>
+      <c r="B95" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="32"/>
+      <c r="B97" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="21"/>
+      <c r="B99" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="32"/>
+      <c r="B102" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="21"/>
+      <c r="B103" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="21"/>
+      <c r="B105" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="21"/>
+      <c r="B107" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="32"/>
+      <c r="B110" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B72:C81">
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:C94">
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:C58">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:C104">
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C4">
+    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C10">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C21">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C30">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C39">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C48">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C57">
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C63">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:C67">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69:C70">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C80">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C93">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95:C97">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99:C102">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107:C110">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B102:C110 B5:C40 B95:C100 B59:C71">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test2V2D.xlsx
+++ b/Test2V2D.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BatchFile" sheetId="3" r:id="rId1"/>
     <sheet name="Quick Sanity" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BatchFile!$A$3:$F$13</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="300">
   <si>
     <t>Page/Section</t>
   </si>
@@ -836,9 +837,6 @@
     <t>AdditionalVehicle-details</t>
   </si>
   <si>
-    <t>AdditionalVehicle-details-2</t>
-  </si>
-  <si>
     <t>2Year</t>
   </si>
   <si>
@@ -921,6 +919,12 @@
   </si>
   <si>
     <t>2Licenseno</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V1</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1349,257 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2499,18 +2753,18 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F24">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G24">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"SKIPPED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"PASSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2531,8 +2785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3435,22 +3689,22 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="B89:B1048576 B1:B4 B7:B36 B83:B87 B53:B62">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B71">
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B82">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:B52">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" location="/v1-family"/>
@@ -3462,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3922,7 +4176,7 @@
     <row r="41" spans="1:4">
       <c r="A41" s="21"/>
       <c r="B41" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>267</v>
@@ -3934,7 +4188,7 @@
     <row r="42" spans="1:4">
       <c r="A42" s="32"/>
       <c r="B42" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>267</v>
@@ -3946,7 +4200,7 @@
     <row r="43" spans="1:4">
       <c r="A43" s="32"/>
       <c r="B43" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>267</v>
@@ -3958,7 +4212,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="32"/>
       <c r="B44" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>267</v>
@@ -3970,7 +4224,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="32"/>
       <c r="B45" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>267</v>
@@ -3982,7 +4236,7 @@
     <row r="46" spans="1:4">
       <c r="A46" s="32"/>
       <c r="B46" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>267</v>
@@ -3994,7 +4248,7 @@
     <row r="47" spans="1:4">
       <c r="A47" s="32"/>
       <c r="B47" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>267</v>
@@ -4006,25 +4260,29 @@
     <row r="48" spans="1:4">
       <c r="A48" s="32"/>
       <c r="B48" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="21"/>
+      <c r="B49" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="21"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="33" t="s">
         <v>279</v>
       </c>
@@ -4032,7 +4290,7 @@
         <v>267</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4044,7 +4302,7 @@
         <v>267</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4055,9 +4313,7 @@
       <c r="C52" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="D52" s="33"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="32"/>
@@ -4067,7 +4323,9 @@
       <c r="C53" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="32"/>
@@ -4078,7 +4336,7 @@
         <v>267</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4090,7 +4348,7 @@
         <v>267</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4106,167 +4364,167 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="A57" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="21"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="33" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="32"/>
       <c r="B60" s="33" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="32"/>
       <c r="B61" s="33" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="32"/>
       <c r="B62" s="33" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>128</v>
-      </c>
+      <c r="D62" s="33"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>267</v>
-      </c>
+      <c r="A63" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="33"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="21"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="32"/>
       <c r="B66" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="32"/>
-      <c r="B67" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="A67" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="21"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="33" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D69" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="32"/>
-      <c r="B70" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>267</v>
-      </c>
+      <c r="A70" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
       <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="C71" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="21"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="33" t="s">
         <v>288</v>
       </c>
@@ -4274,7 +4532,7 @@
         <v>267</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4285,8 +4543,8 @@
       <c r="C73" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D73" s="33" t="s">
-        <v>219</v>
+      <c r="D73" s="34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4297,8 +4555,8 @@
       <c r="C74" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D74" s="34" t="s">
-        <v>160</v>
+      <c r="D74" s="33" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4310,7 +4568,7 @@
         <v>267</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4322,7 +4580,7 @@
         <v>267</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4334,7 +4592,7 @@
         <v>267</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4346,7 +4604,7 @@
         <v>267</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4358,125 +4616,125 @@
         <v>267</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="32"/>
-      <c r="B80" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>14</v>
-      </c>
+      <c r="A80" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="21"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="32"/>
       <c r="B83" s="33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="32"/>
       <c r="B84" s="33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="32"/>
       <c r="B85" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="32"/>
       <c r="B86" s="33" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="32"/>
-      <c r="B87" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>175</v>
-      </c>
+      <c r="A87" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="21"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="33" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="21" t="s">
-        <v>178</v>
+      <c r="D89" s="33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="32"/>
       <c r="B90" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>267</v>
@@ -4488,183 +4746,183 @@
     <row r="91" spans="1:4">
       <c r="A91" s="32"/>
       <c r="B91" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="32"/>
       <c r="B92" s="33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>210</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="32"/>
-      <c r="B93" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C93" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D93" s="33" t="s">
-        <v>129</v>
-      </c>
+      <c r="A93" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="21"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="33" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D95" s="33" t="s">
-        <v>138</v>
+      <c r="D95" s="34" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="32"/>
       <c r="B96" s="33" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D96" s="34" t="s">
-        <v>182</v>
+      <c r="D96" s="33" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="32"/>
-      <c r="B97" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C97" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D97" s="33" t="s">
-        <v>140</v>
-      </c>
+      <c r="A97" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="21"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="33" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="32"/>
       <c r="B100" s="33" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="32"/>
       <c r="B101" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="32"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="33" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="21"/>
-      <c r="B103" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>214</v>
-      </c>
+      <c r="A103" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="21"/>
+      <c r="B104" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="C104" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="21"/>
-      <c r="B105" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D105" s="33" t="s">
-        <v>156</v>
-      </c>
+      <c r="A105" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="A106" s="21"/>
+      <c r="B106" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="21"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C107" s="33" t="s">
         <v>267</v>
@@ -4676,114 +4934,1424 @@
     <row r="108" spans="1:4">
       <c r="A108" s="32"/>
       <c r="B108" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>267</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="32"/>
       <c r="B109" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D109" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="32"/>
-      <c r="B110" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="D110" s="34" t="s">
+      <c r="D109" s="34" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B72:C81">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+  <conditionalFormatting sqref="B71:C80">
+    <cfRule type="duplicateValues" dxfId="49" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:C94">
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+  <conditionalFormatting sqref="B81:C93">
+    <cfRule type="duplicateValues" dxfId="48" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:C58">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:C104">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+  <conditionalFormatting sqref="B102:C103">
+    <cfRule type="duplicateValues" dxfId="47" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C4">
-    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C10">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C14">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C30">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C39">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C56">
+    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:C62">
+    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:C66">
+    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C79">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C86">
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88:C92">
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:C96">
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C101">
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C109">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:C109 B5:C40 B94:C99 B58:C70">
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C48">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C57">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  <conditionalFormatting sqref="B41:C57">
+    <cfRule type="duplicateValues" dxfId="25" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C63">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="21"/>
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="21"/>
+      <c r="B5" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="21"/>
+      <c r="B7" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="21"/>
+      <c r="B16" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="32"/>
+      <c r="B18" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="32"/>
+      <c r="B23" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="21"/>
+      <c r="C24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="32"/>
+      <c r="C25" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="32"/>
+      <c r="C26" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="32"/>
+      <c r="C27" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="32"/>
+      <c r="C29" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="32"/>
+      <c r="C30" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="32"/>
+      <c r="C31" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="21"/>
+      <c r="C32" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="32"/>
+      <c r="C33" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32"/>
+      <c r="C34" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="32"/>
+      <c r="C35" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="32"/>
+      <c r="C36" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="32"/>
+      <c r="C37" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="32"/>
+      <c r="C38" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="32"/>
+      <c r="C39" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="21"/>
+      <c r="C41" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="32"/>
+      <c r="C42" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="32"/>
+      <c r="C43" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="32"/>
+      <c r="C44" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="32"/>
+      <c r="C45" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="32"/>
+      <c r="C46" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="32"/>
+      <c r="C47" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="32"/>
+      <c r="C48" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="21"/>
+      <c r="C49" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="32"/>
+      <c r="C50" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="32"/>
+      <c r="C51" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="32"/>
+      <c r="C52" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="33"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="32"/>
+      <c r="C53" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="32"/>
+      <c r="C54" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="32"/>
+      <c r="C55" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="32"/>
+      <c r="C56" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="21"/>
+      <c r="B58" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="21"/>
+      <c r="B64" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="32"/>
+      <c r="B65" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="32"/>
+      <c r="B66" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="21"/>
+      <c r="B68" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="32"/>
+      <c r="B69" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="33"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="21"/>
+      <c r="B71" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="32"/>
+      <c r="B72" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="32"/>
+      <c r="B73" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="32"/>
+      <c r="B74" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="32"/>
+      <c r="B75" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="32"/>
+      <c r="B76" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="32"/>
+      <c r="B77" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="32"/>
+      <c r="B78" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="32"/>
+      <c r="B79" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="21"/>
+      <c r="B81" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="32"/>
+      <c r="B82" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="32"/>
+      <c r="B83" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="32"/>
+      <c r="B84" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="32"/>
+      <c r="B85" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="32"/>
+      <c r="B86" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="21"/>
+      <c r="B88" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="32"/>
+      <c r="B89" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="32"/>
+      <c r="B90" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="32"/>
+      <c r="B91" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="32"/>
+      <c r="B92" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="21"/>
+      <c r="B94" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="32"/>
+      <c r="B95" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="32"/>
+      <c r="B96" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="21"/>
+      <c r="B98" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="32"/>
+      <c r="B99" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="32"/>
+      <c r="B100" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="32"/>
+      <c r="B101" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="21"/>
+      <c r="B102" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="21"/>
+      <c r="B104" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="21"/>
+      <c r="B106" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="32"/>
+      <c r="B107" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="32"/>
+      <c r="B108" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="32"/>
+      <c r="B109" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B71:C80">
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65:C67">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="B81:C93">
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C70">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  <conditionalFormatting sqref="B102:C103">
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C80">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  <conditionalFormatting sqref="B2:C4">
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C93">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  <conditionalFormatting sqref="C7:C10">
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:C97">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="C12:C14">
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:C102">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="C16:C21">
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="D49:D56">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="C58:C62">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107:C110">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="C64:C66">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B102:C110 B5:C40 B95:C100 B59:C71">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  <conditionalFormatting sqref="C68:C69">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C79">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C86">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88:C92">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94:C96">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C101">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C109">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:C109 B58:C70 B94:C99 B40 B5:C23 C32:C40 C24:D31">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41:D48">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:C57 C41:D56">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D39">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D31">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
